--- a/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
@@ -126,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -148,6 +148,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -155,9 +162,78 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,15 +246,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,97 +290,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -306,37 +306,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,13 +444,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,127 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,6 +511,74 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,222 +612,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>

--- a/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
@@ -126,9 +126,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -161,8 +161,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,21 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -199,33 +244,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,31 +276,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,22 +290,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -306,187 +306,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,6 +515,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -526,24 +550,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,26 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -598,17 +584,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,136 +630,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>

--- a/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
@@ -147,6 +147,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -154,10 +192,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,15 +238,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,28 +256,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,33 +269,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,32 +284,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,55 +306,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,13 +462,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,109 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,8 +518,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,17 +563,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +589,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -583,45 +612,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,136 +630,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>

--- a/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
@@ -126,8 +126,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -148,10 +148,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,6 +177,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -178,15 +275,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,97 +290,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -306,37 +306,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,145 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,20 +515,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,6 +541,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,50 +606,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,136 +630,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,18 +1094,18 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="21" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="2" customWidth="1"/>

--- a/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
@@ -14,20 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t>任务ID</t>
   </si>
   <si>
-    <t>触发类型</t>
-  </si>
-  <si>
-    <t>触发参数</t>
-  </si>
-  <si>
-    <t>后置任务</t>
-  </si>
-  <si>
     <t>讲武堂等级</t>
   </si>
   <si>
@@ -40,42 +31,21 @@
     <t>任务类型</t>
   </si>
   <si>
+    <t>任务时长（秒）</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>事件(刷新任务状态)</t>
+  </si>
+  <si>
+    <t>完成条件类型</t>
+  </si>
+  <si>
     <t>任务参数</t>
   </si>
   <si>
-    <t>任务时长（秒）</t>
-  </si>
-  <si>
-    <t>奖励</t>
-  </si>
-  <si>
-    <t>特殊奖励概率（基数10000）</t>
-  </si>
-  <si>
-    <t>特殊奖励</t>
-  </si>
-  <si>
-    <t>经验奖励</t>
-  </si>
-  <si>
-    <t>功夫经验奖励</t>
-  </si>
-  <si>
-    <t>事件(刷新任务状态)</t>
-  </si>
-  <si>
-    <t>完成条件类型</t>
-  </si>
-  <si>
-    <t>敌人配置</t>
-  </si>
-  <si>
-    <t>可派弟子数量</t>
-  </si>
-  <si>
-    <t>弟子等级要求</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -88,15 +58,6 @@
     <t>TaskID</t>
   </si>
   <si>
-    <t>TriggerType</t>
-  </si>
-  <si>
-    <t>TriggerParam</t>
-  </si>
-  <si>
-    <t>NextTask</t>
-  </si>
-  <si>
     <t>HomeLevel</t>
   </si>
   <si>
@@ -109,52 +70,55 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>TaskEvent</t>
+  </si>
+  <si>
+    <t>ConditionType</t>
+  </si>
+  <si>
     <t>ConditionValue</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Reward</t>
-  </si>
-  <si>
-    <t>SpecialRewardRate</t>
-  </si>
-  <si>
-    <t>SpecialReward</t>
-  </si>
-  <si>
-    <t>ExpReward</t>
-  </si>
-  <si>
-    <t>KongfuExpReward</t>
-  </si>
-  <si>
-    <t>TaskEvent</t>
-  </si>
-  <si>
-    <t>ConditionType</t>
-  </si>
-  <si>
-    <t>Enemy</t>
-  </si>
-  <si>
-    <t>RoleAmount</t>
-  </si>
-  <si>
-    <t>RoleLevelRequired</t>
-  </si>
-  <si>
-    <t>经验</t>
-  </si>
-  <si>
-    <t>功夫经验</t>
-  </si>
-  <si>
-    <t>钱</t>
-  </si>
-  <si>
-    <t>Daily</t>
+    <t>采集-钓鱼</t>
+  </si>
+  <si>
+    <t>钓几条鱼回来炖鱼汤</t>
+  </si>
+  <si>
+    <t>Collect_Fish</t>
+  </si>
+  <si>
+    <t>Coin|200</t>
+  </si>
+  <si>
+    <t>OnTaskManualFinished</t>
+  </si>
+  <si>
+    <t>ManualFinish</t>
+  </si>
+  <si>
+    <t>采集-狩猎</t>
+  </si>
+  <si>
+    <t>村北出现一头熊，去做了它</t>
+  </si>
+  <si>
+    <t>Collect_Bear</t>
+  </si>
+  <si>
+    <t>战斗-剿匪</t>
+  </si>
+  <si>
+    <t>山贼下山来了，剿灭他们为民除害</t>
+  </si>
+  <si>
+    <t>Battle</t>
   </si>
 </sst>
 </file>
@@ -163,9 +127,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -183,10 +147,115 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,11 +267,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,58 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -273,59 +290,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -342,19 +306,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,151 +402,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,6 +516,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -566,17 +545,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,24 +589,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -640,11 +606,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,136 +630,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,12 +1091,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1150,7 +1112,7 @@
     <col min="11" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:20">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1181,253 +1143,293 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:20">
-      <c r="A2" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2">
+        <v>1101</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:20">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:24">
-      <c r="A4" s="1" t="s">
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
+        <v>1102</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
+        <v>1103</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2">
+        <v>60</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <v>2101</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F8" s="2">
+        <v>120</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <v>2102</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="F9" s="2">
+        <v>180</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <v>2103</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
-        <v>30101</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2">
-        <v>30102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2">
-        <v>30103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2">
-        <v>30104</v>
+      <c r="F10" s="2">
+        <v>300</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="4:10">

--- a/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>任务ID</t>
   </si>
@@ -34,21 +34,6 @@
     <t>奖励</t>
   </si>
   <si>
-    <t>事件(刷新任务状态)</t>
-  </si>
-  <si>
-    <t>完成条件类型</t>
-  </si>
-  <si>
-    <t>敌人配置</t>
-  </si>
-  <si>
-    <t>可派弟子数量</t>
-  </si>
-  <si>
-    <t>弟子等级要求</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -76,21 +61,6 @@
     <t>Reward</t>
   </si>
   <si>
-    <t>TaskEvent</t>
-  </si>
-  <si>
-    <t>ConditionType</t>
-  </si>
-  <si>
-    <t>Enemy</t>
-  </si>
-  <si>
-    <t>RoleAmount</t>
-  </si>
-  <si>
-    <t>RoleLevelRequired</t>
-  </si>
-  <si>
     <t>认真工作</t>
   </si>
   <si>
@@ -100,6 +70,9 @@
     <t>Daily_Job</t>
   </si>
   <si>
+    <t>Item|2001|1</t>
+  </si>
+  <si>
     <t>努力练功</t>
   </si>
   <si>
@@ -109,7 +82,7 @@
     <t>Daily_Exercise</t>
   </si>
   <si>
-    <t>Item|2001|1</t>
+    <t>Item|3002|1</t>
   </si>
   <si>
     <t>好好吃饭</t>
@@ -121,6 +94,9 @@
     <t>Daily_Cook</t>
   </si>
   <si>
+    <t>Item|3001|1</t>
+  </si>
+  <si>
     <t>专心抄经</t>
   </si>
   <si>
@@ -130,9 +106,6 @@
     <t>Daily_Copy</t>
   </si>
   <si>
-    <t>Kongfu|2002|1</t>
-  </si>
-  <si>
     <t>开心采集</t>
   </si>
   <si>
@@ -151,6 +124,9 @@
     <t>Daily_Chanllenge</t>
   </si>
   <si>
+    <t>Item|3102|1</t>
+  </si>
+  <si>
     <t>天天打铁</t>
   </si>
   <si>
@@ -160,7 +136,7 @@
     <t>Daily_Forge</t>
   </si>
   <si>
-    <t>Item|3001|1</t>
+    <t>Item|3101|1</t>
   </si>
 </sst>
 </file>
@@ -169,9 +145,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -189,91 +165,92 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,38 +273,37 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,13 +324,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,169 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,30 +534,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -596,11 +548,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,16 +578,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -660,148 +636,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,31 +1112,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.25" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.83333333333333" style="2"/>
+    <col min="6" max="6" width="11" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1179,128 +1150,68 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
-      <c r="A3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:11">
-      <c r="A4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>30101</v>
       </c>
@@ -1308,13 +1219,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1325,19 +1239,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>30103</v>
       </c>
@@ -1345,13 +1259,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1362,19 +1279,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>30105</v>
       </c>
@@ -1382,16 +1299,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>30106</v>
       </c>
@@ -1399,13 +1319,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1416,16 +1339,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:5">

--- a/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>任务ID</t>
   </si>
@@ -61,31 +61,67 @@
     <t>Reward</t>
   </si>
   <si>
+    <t>再来一碗</t>
+  </si>
+  <si>
+    <t>补充2次食物。</t>
+  </si>
+  <si>
+    <t>Daily_Food</t>
+  </si>
+  <si>
+    <t>Item|2002|1</t>
+  </si>
+  <si>
+    <t>接待访客</t>
+  </si>
+  <si>
+    <t>接待任意2位访客。</t>
+  </si>
+  <si>
+    <t>Daily_Visitor</t>
+  </si>
+  <si>
+    <t>招兵买马</t>
+  </si>
+  <si>
+    <t>招募3次弟子。</t>
+  </si>
+  <si>
+    <t>Daily_Cruise</t>
+  </si>
+  <si>
+    <t>Food|25</t>
+  </si>
+  <si>
     <t>认真工作</t>
   </si>
   <si>
-    <t>派遣弟子完成任意3次工作。</t>
+    <t>派遣弟子完成任意5次工作。</t>
   </si>
   <si>
     <t>Daily_Job</t>
   </si>
   <si>
-    <t>Item|2001|1</t>
-  </si>
-  <si>
     <t>努力练功</t>
   </si>
   <si>
-    <t>派遣弟子完成1次练功。</t>
+    <t>派遣弟子在练功场完成3次练功。</t>
   </si>
   <si>
     <t>Daily_Exercise</t>
   </si>
   <si>
-    <t>Item|3002|1</t>
-  </si>
-  <si>
-    <t>好好吃饭</t>
+    <t>专心抄经</t>
+  </si>
+  <si>
+    <t>派遣弟子在藏经阁完成3次抄经。</t>
+  </si>
+  <si>
+    <t>Daily_Copy</t>
+  </si>
+  <si>
+    <t>美味佳肴</t>
   </si>
   <si>
     <t>在伙房烹饪1次菜品。</t>
@@ -94,18 +130,6 @@
     <t>Daily_Cook</t>
   </si>
   <si>
-    <t>Item|3001|1</t>
-  </si>
-  <si>
-    <t>专心抄经</t>
-  </si>
-  <si>
-    <t>在藏经阁完成1次抄经。</t>
-  </si>
-  <si>
-    <t>Daily_Copy</t>
-  </si>
-  <si>
     <t>开心采集</t>
   </si>
   <si>
@@ -124,9 +148,6 @@
     <t>Daily_Chanllenge</t>
   </si>
   <si>
-    <t>Item|3102|1</t>
-  </si>
-  <si>
     <t>天天打铁</t>
   </si>
   <si>
@@ -134,9 +155,6 @@
   </si>
   <si>
     <t>Daily_Forge</t>
-  </si>
-  <si>
-    <t>Item|3101|1</t>
   </si>
 </sst>
 </file>
@@ -146,8 +164,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -166,75 +184,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,9 +273,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,38 +289,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,37 +342,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,49 +456,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,91 +486,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,16 +552,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,34 +600,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,73 +666,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -723,61 +741,61 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,12 +1130,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1125,9 +1143,9 @@
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
@@ -1213,9 +1231,9 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>30101</v>
-      </c>
-      <c r="B5" s="2">
+        <v>101</v>
+      </c>
+      <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1233,7 +1251,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>30102</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -1248,126 +1266,168 @@
         <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>30103</v>
-      </c>
-      <c r="B7" s="3">
+        <v>103</v>
+      </c>
+      <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>30104</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2</v>
+        <v>104</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>30105</v>
+        <v>105</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>30106</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>30107</v>
+        <v>107</v>
       </c>
       <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>108</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>109</v>
+      </c>
+      <c r="B13" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>110</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25"/>
@@ -1464,6 +1524,24 @@
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
     </row>
   </sheetData>
   <sortState ref="B5:E11">

--- a/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>任务ID</t>
   </si>
@@ -22,6 +22,9 @@
     <t>讲武堂等级</t>
   </si>
   <si>
+    <t>任务icon</t>
+  </si>
+  <si>
     <t>任务标题</t>
   </si>
   <si>
@@ -31,6 +34,9 @@
     <t>任务类型</t>
   </si>
   <si>
+    <t>数量参数</t>
+  </si>
+  <si>
     <t>奖励</t>
   </si>
   <si>
@@ -49,6 +55,9 @@
     <t>HomeLevel</t>
   </si>
   <si>
+    <t>IconRes</t>
+  </si>
+  <si>
     <t>TaskTitle</t>
   </si>
   <si>
@@ -58,6 +67,9 @@
     <t>Type</t>
   </si>
   <si>
+    <t>TaskCount</t>
+  </si>
+  <si>
     <t>Reward</t>
   </si>
   <si>
@@ -73,7 +85,7 @@
     <t>Item|2002|1</t>
   </si>
   <si>
-    <t>接待访客</t>
+    <t>热情好客</t>
   </si>
   <si>
     <t>接待任意2位访客。</t>
@@ -94,7 +106,7 @@
     <t>Food|25</t>
   </si>
   <si>
-    <t>认真工作</t>
+    <t>劳动模范</t>
   </si>
   <si>
     <t>派遣弟子完成任意5次工作。</t>
@@ -103,7 +115,7 @@
     <t>Daily_Job</t>
   </si>
   <si>
-    <t>努力练功</t>
+    <t>勤学苦练</t>
   </si>
   <si>
     <t>派遣弟子在练功场完成3次练功。</t>
@@ -112,7 +124,7 @@
     <t>Daily_Exercise</t>
   </si>
   <si>
-    <t>专心抄经</t>
+    <t>饱读经书</t>
   </si>
   <si>
     <t>派遣弟子在藏经阁完成3次抄经。</t>
@@ -130,7 +142,7 @@
     <t>Daily_Cook</t>
   </si>
   <si>
-    <t>开心采集</t>
+    <t>开心田园</t>
   </si>
   <si>
     <t>在池塘边完成任意3次采集。</t>
@@ -139,7 +151,7 @@
     <t>Daily_Collect</t>
   </si>
   <si>
-    <t>勇敢挑战</t>
+    <t>切磋武艺</t>
   </si>
   <si>
     <t>派遣弟子完成1次挑战。</t>
@@ -148,13 +160,22 @@
     <t>Daily_Chanllenge</t>
   </si>
   <si>
-    <t>天天打铁</t>
+    <t>趁热打铁</t>
   </si>
   <si>
     <t>在锻造屋完成1次装备打造。</t>
   </si>
   <si>
     <t>Daily_Forge</t>
+  </si>
+  <si>
+    <t>灵丹妙药</t>
+  </si>
+  <si>
+    <t>在百草屋完成1次草药炼制。</t>
+  </si>
+  <si>
+    <t>Daily_Medicine</t>
   </si>
 </sst>
 </file>
@@ -164,8 +185,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -184,9 +205,99 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,33 +309,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,97 +347,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -342,187 +363,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,26 +572,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,21 +586,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,6 +605,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -629,22 +655,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,136 +687,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1130,7 +1151,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1138,18 +1159,20 @@
       <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.83333333333333" style="2"/>
+    <col min="3" max="3" width="7.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,383 +1191,498 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>101</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>102</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>105</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>106</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>107</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>108</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>109</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>110</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>111</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-    </row>
-    <row r="27" spans="2:5">
+      <c r="F26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-    </row>
-    <row r="28" spans="2:5">
+      <c r="F27"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
-    </row>
-    <row r="29" spans="2:5">
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
-    </row>
-    <row r="30" spans="2:5">
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
-    </row>
-    <row r="31" spans="2:5">
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
-    </row>
-    <row r="40" spans="2:5">
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
-    </row>
-    <row r="41" spans="2:5">
+      <c r="F40"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="2:7">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
-    </row>
-    <row r="42" spans="2:5">
+      <c r="F41"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
-    </row>
-    <row r="43" spans="2:5">
+      <c r="F42"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
     </row>
   </sheetData>
-  <sortState ref="B5:E11">
+  <sortState ref="B5:F11">
     <sortCondition ref="B5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
@@ -183,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -205,7 +205,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,13 +242,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -242,24 +281,62 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,83 +347,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -363,37 +363,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,25 +471,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +507,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,103 +537,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,10 +581,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -605,13 +631,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,46 +669,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,19 +687,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,115 +708,115 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,7 +1156,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="22620"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>任务ID</t>
   </si>
@@ -100,7 +100,7 @@
     <t>招募3次弟子。</t>
   </si>
   <si>
-    <t>Daily_Cruise</t>
+    <t>Daily_Recruit</t>
   </si>
   <si>
     <t>Food|25</t>
@@ -121,7 +121,7 @@
     <t>派遣弟子在练功场完成3次练功。</t>
   </si>
   <si>
-    <t>Daily_Exercise</t>
+    <t>Daily_Practice</t>
   </si>
   <si>
     <t>饱读经书</t>
@@ -183,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -205,14 +205,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,128 +347,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -363,187 +363,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,21 +581,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -605,13 +590,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,21 +635,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -655,168 +644,179 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -834,55 +834,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="常规 2 2" xfId="30"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1149,17 +1149,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="12.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
@@ -1169,10 +1169,10 @@
     <col min="6" max="6" width="15.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="11" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.83333333333333" style="2"/>
+    <col min="9" max="16384" width="8.83035714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1685,7 +1685,7 @@
   <sortState ref="B5:F11">
     <sortCondition ref="B5"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22620"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>任务ID</t>
   </si>
@@ -73,6 +73,9 @@
     <t>Reward</t>
   </si>
   <si>
+    <t>dt_food</t>
+  </si>
+  <si>
     <t>再来一碗</t>
   </si>
   <si>
@@ -85,15 +88,21 @@
     <t>Item|2002|1</t>
   </si>
   <si>
-    <t>热情好客</t>
-  </si>
-  <si>
-    <t>接待任意2位访客。</t>
+    <t>dt_gift</t>
+  </si>
+  <si>
+    <t>礼尚往来</t>
+  </si>
+  <si>
+    <t>接受任意2位访客的礼物。</t>
   </si>
   <si>
     <t>Daily_Visitor</t>
   </si>
   <si>
+    <t>dt_summon</t>
+  </si>
+  <si>
     <t>招兵买马</t>
   </si>
   <si>
@@ -106,6 +115,9 @@
     <t>Food|25</t>
   </si>
   <si>
+    <t>dt_work</t>
+  </si>
+  <si>
     <t>劳动模范</t>
   </si>
   <si>
@@ -115,6 +127,9 @@
     <t>Daily_Job</t>
   </si>
   <si>
+    <t>dt_practice</t>
+  </si>
+  <si>
     <t>勤学苦练</t>
   </si>
   <si>
@@ -124,6 +139,9 @@
     <t>Daily_Practice</t>
   </si>
   <si>
+    <t>dt_book</t>
+  </si>
+  <si>
     <t>饱读经书</t>
   </si>
   <si>
@@ -133,6 +151,9 @@
     <t>Daily_Copy</t>
   </si>
   <si>
+    <t>dt_recipe</t>
+  </si>
+  <si>
     <t>美味佳肴</t>
   </si>
   <si>
@@ -142,6 +163,9 @@
     <t>Daily_Cook</t>
   </si>
   <si>
+    <t>dt_collect</t>
+  </si>
+  <si>
     <t>开心田园</t>
   </si>
   <si>
@@ -151,6 +175,9 @@
     <t>Daily_Collect</t>
   </si>
   <si>
+    <t>dt_battle</t>
+  </si>
+  <si>
     <t>切磋武艺</t>
   </si>
   <si>
@@ -160,6 +187,9 @@
     <t>Daily_Chanllenge</t>
   </si>
   <si>
+    <t>dt_forge</t>
+  </si>
+  <si>
     <t>趁热打铁</t>
   </si>
   <si>
@@ -167,6 +197,9 @@
   </si>
   <si>
     <t>Daily_Forge</t>
+  </si>
+  <si>
+    <t>dt_medicine</t>
   </si>
   <si>
     <t>灵丹妙药</t>
@@ -184,8 +217,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -204,8 +237,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +269,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -228,35 +329,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -273,14 +345,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,38 +360,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,15 +375,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,13 +396,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,169 +480,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,11 +605,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,36 +659,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -651,6 +675,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,151 +705,151 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -834,55 +867,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="常规 2 2" xfId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="44"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1149,30 +1182,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="12.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="11" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.83035714285714" style="2"/>
+    <col min="9" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +1231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:8">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1224,7 +1257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:8">
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1250,7 +1283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:8">
+    <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1283,20 +1316,23 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1306,20 +1342,23 @@
       <c r="B6" s="3">
         <v>1</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1329,20 +1368,23 @@
       <c r="B7" s="2">
         <v>1</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1352,20 +1394,23 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2">
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1375,20 +1420,23 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2">
         <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1398,20 +1446,23 @@
       <c r="B10" s="3">
         <v>2</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2">
         <v>3</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1421,20 +1472,23 @@
       <c r="B11" s="3">
         <v>2</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1444,20 +1498,23 @@
       <c r="B12" s="3">
         <v>2</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1467,20 +1524,23 @@
       <c r="B13" s="3">
         <v>3</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1490,20 +1550,23 @@
       <c r="B14" s="3">
         <v>3</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1513,20 +1576,23 @@
       <c r="B15" s="2">
         <v>4</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:7">

--- a/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
@@ -112,7 +112,7 @@
     <t>Daily_Recruit</t>
   </si>
   <si>
-    <t>Food|25</t>
+    <t>Food|20</t>
   </si>
   <si>
     <t>dt_work</t>
@@ -216,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -237,6 +237,104 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -245,22 +343,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -269,6 +351,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -278,89 +367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,13 +380,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -396,187 +396,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,21 +606,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -635,11 +620,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,15 +652,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -682,8 +664,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,16 +684,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,136 +720,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
@@ -112,7 +112,7 @@
     <t>Daily_Recruit</t>
   </si>
   <si>
-    <t>Food|20</t>
+    <t>Food|10</t>
   </si>
   <si>
     <t>dt_work</t>
@@ -216,8 +216,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -238,14 +238,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,6 +267,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -274,8 +297,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,82 +360,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -380,6 +373,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -396,187 +396,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,26 +650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -696,6 +676,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -708,10 +708,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,16 +720,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,115 +741,115 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,7 +1189,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
@@ -79,7 +79,7 @@
     <t>再来一碗</t>
   </si>
   <si>
-    <t>补充2次食物。</t>
+    <t>补充3次食物。</t>
   </si>
   <si>
     <t>Daily_Food</t>
@@ -94,7 +94,7 @@
     <t>礼尚往来</t>
   </si>
   <si>
-    <t>接受任意2位访客的礼物。</t>
+    <t>接受任意3位访客的礼物。</t>
   </si>
   <si>
     <t>Daily_Visitor</t>
@@ -216,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -245,7 +245,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,127 +374,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -396,115 +396,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,67 +576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,16 +606,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,17 +646,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,27 +674,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,148 +708,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,7 +1189,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/DailyTask.xlsx
@@ -216,9 +216,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -245,7 +245,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,6 +266,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +327,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -276,52 +350,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,14 +365,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -358,28 +380,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -396,187 +396,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,6 +601,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,50 +664,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,11 +688,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,10 +708,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,136 +720,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,7 +1189,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1329,7 +1329,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>23</v>
@@ -1355,7 +1355,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>23</v>
